--- a/docs/shrcore/shr-core-Device.xlsx
+++ b/docs/shrcore/shr-core-Device.xlsx
@@ -537,14 +537,14 @@
     <t>Serial number assigned by the manufacturer.</t>
   </si>
   <si>
-    <t>devicename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DeviceName-extension]]} {[]}
+    <t>devicedesignation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DeviceDesignation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The name of the device as given by the manufacturer.</t>
+    <t>A name of the device as given by the manufacturer, along with a type of name.</t>
   </si>
   <si>
     <t>partof</t>
@@ -1217,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1227,7 +1227,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.2265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
